--- a/Data/sdg_monthly_TH(pro).xlsx
+++ b/Data/sdg_monthly_TH(pro).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A63608-B7F3-4F15-BF6C-8DDB76B3234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08952A0-0E04-45DE-A48F-8837F011C2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
   <si>
     <t>ADM1_EN</t>
   </si>
@@ -259,6 +259,156 @@
   <si>
     <t>February 2018</t>
   </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t>November 2018</t>
+  </si>
+  <si>
+    <t>December 2018</t>
+  </si>
+  <si>
+    <t>January 2019</t>
+  </si>
+  <si>
+    <t>February 2019</t>
+  </si>
+  <si>
+    <t>March 2019</t>
+  </si>
+  <si>
+    <t>April 2019</t>
+  </si>
+  <si>
+    <t>May 2019</t>
+  </si>
+  <si>
+    <t>June 2019</t>
+  </si>
+  <si>
+    <t>July 2019</t>
+  </si>
+  <si>
+    <t>August 2019</t>
+  </si>
+  <si>
+    <t>September 2019</t>
+  </si>
+  <si>
+    <t>October 2019</t>
+  </si>
+  <si>
+    <t>November 2019</t>
+  </si>
+  <si>
+    <t>December 2019</t>
+  </si>
+  <si>
+    <t>January 2020</t>
+  </si>
+  <si>
+    <t>February 2020</t>
+  </si>
+  <si>
+    <t>March 2020</t>
+  </si>
+  <si>
+    <t>April 2020</t>
+  </si>
+  <si>
+    <t>May 2020</t>
+  </si>
+  <si>
+    <t>June 2020</t>
+  </si>
+  <si>
+    <t>July 2020</t>
+  </si>
+  <si>
+    <t>August 2020</t>
+  </si>
+  <si>
+    <t>September 2020</t>
+  </si>
+  <si>
+    <t>October 2020</t>
+  </si>
+  <si>
+    <t>November 2020</t>
+  </si>
+  <si>
+    <t>December 2020</t>
+  </si>
+  <si>
+    <t>January 2021</t>
+  </si>
+  <si>
+    <t>February 2021</t>
+  </si>
+  <si>
+    <t>March 2021</t>
+  </si>
+  <si>
+    <t>May 2021</t>
+  </si>
+  <si>
+    <t>June 2021</t>
+  </si>
+  <si>
+    <t>July 2021</t>
+  </si>
+  <si>
+    <t>August 2021</t>
+  </si>
+  <si>
+    <t>September 2021</t>
+  </si>
+  <si>
+    <t>October 2021</t>
+  </si>
+  <si>
+    <t>November 2021</t>
+  </si>
+  <si>
+    <t>December 2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">April </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2021</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -267,7 +417,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +568,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -762,10 +919,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1124,160 +1280,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="48" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="48" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="2">
-        <v>43160</v>
-      </c>
-      <c r="D1" s="2">
-        <v>43191</v>
-      </c>
-      <c r="E1" s="2">
-        <v>43221</v>
-      </c>
-      <c r="F1" s="2">
-        <v>43252</v>
-      </c>
-      <c r="G1" s="2">
-        <v>43282</v>
-      </c>
-      <c r="H1" s="2">
-        <v>43313</v>
-      </c>
-      <c r="I1" s="2">
-        <v>43344</v>
-      </c>
-      <c r="J1" s="2">
-        <v>43374</v>
-      </c>
-      <c r="K1" s="2">
-        <v>43405</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43435</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43466</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43497</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43525</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43556</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43586</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43617</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43647</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43678</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43709</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43739</v>
-      </c>
-      <c r="W1" s="2">
-        <v>43770</v>
-      </c>
-      <c r="X1" s="2">
-        <v>43800</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>43831</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>43862</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>43891</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>43922</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>43952</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>43983</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>44013</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>44044</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>44075</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>44105</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>44136</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>44166</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>44197</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>44228</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>44256</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>44287</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>44317</v>
-      </c>
-      <c r="AP1" s="2">
-        <v>44348</v>
-      </c>
-      <c r="AQ1" s="2">
-        <v>44378</v>
-      </c>
-      <c r="AR1" s="2">
-        <v>44409</v>
-      </c>
-      <c r="AS1" s="2">
-        <v>44440</v>
-      </c>
-      <c r="AT1" s="2">
-        <v>44470</v>
-      </c>
-      <c r="AU1" s="2">
-        <v>44501</v>
-      </c>
-      <c r="AV1" s="2">
-        <v>44531</v>
+      <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
@@ -12524,6 +12681,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/Data/sdg_monthly_TH(pro).xlsx
+++ b/Data/sdg_monthly_TH(pro).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021_DataScience\2023_streamlit\SDG_app\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08952A0-0E04-45DE-A48F-8837F011C2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C86CA5-9716-4158-BC10-6ADBA5FEA953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
